--- a/results/A-05.xlsx
+++ b/results/A-05.xlsx
@@ -733,37 +733,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-5686.551634340651</v>
+        <v>-5686.582309231221</v>
       </c>
       <c r="C2">
-        <v>13277.05299851997</v>
+        <v>13330.70863251111</v>
       </c>
       <c r="D2">
-        <v>-6938.486639960694</v>
+        <v>-6993.55224781001</v>
       </c>
       <c r="E2">
-        <v>-652.0147242184594</v>
+        <v>-650.5740754699494</v>
       </c>
       <c r="F2">
-        <v>61.01521666736261</v>
+        <v>60.83066002748302</v>
       </c>
       <c r="G2">
-        <v>45.00203690477366</v>
+        <v>45.00241456370861</v>
       </c>
       <c r="H2">
-        <v>61.56594428925746</v>
+        <v>61.37293966472015</v>
       </c>
       <c r="I2">
-        <v>44.68658430970396</v>
+        <v>44.69642864725432</v>
       </c>
       <c r="J2">
-        <v>61.11222406133044</v>
+        <v>60.92981297429748</v>
       </c>
       <c r="K2">
-        <v>45.03111407978764</v>
+        <v>45.03907235094567</v>
       </c>
       <c r="L2">
-        <v>53.12364519191522</v>
+        <v>53.12368901318746</v>
       </c>
       <c r="M2">
         <v>45</v>
@@ -772,22 +772,22 @@
         <v>65</v>
       </c>
       <c r="O2">
-        <v>46.03278143068576</v>
+        <v>45.95613052498413</v>
       </c>
       <c r="P2">
-        <v>54.91212377137242</v>
+        <v>54.99078892544287</v>
       </c>
       <c r="Q2">
         <v>45</v>
       </c>
       <c r="R2">
-        <v>5.073099354629219</v>
+        <v>5.132400196711578</v>
       </c>
       <c r="S2">
-        <v>-11.23692995012238</v>
+        <v>-11.41957658593611</v>
       </c>
       <c r="T2">
-        <v>6.163830595493164</v>
+        <v>6.287176389224532</v>
       </c>
       <c r="U2">
         <v>10</v>
@@ -799,13 +799,13 @@
         <v>10</v>
       </c>
       <c r="X2">
-        <v>-52.8556486603928</v>
+        <v>-53.75641413331196</v>
       </c>
       <c r="Y2">
-        <v>-70.91370494019915</v>
+        <v>-70.18623935424107</v>
       </c>
       <c r="Z2">
-        <v>-44.2558221125056</v>
+        <v>-45.53134162955997</v>
       </c>
       <c r="AB2">
         <v>10</v>
@@ -817,91 +817,91 @@
         <v>10</v>
       </c>
       <c r="AE2">
-        <v>-5.073099354629219</v>
+        <v>-5.132400196711578</v>
       </c>
       <c r="AF2">
-        <v>6.163830595493164</v>
+        <v>6.287176389224532</v>
       </c>
       <c r="AG2">
-        <v>5.073099354629219</v>
+        <v>5.132400196711578</v>
       </c>
       <c r="AH2">
-        <v>-11.23692995012238</v>
+        <v>-11.41957658593611</v>
       </c>
       <c r="AI2">
-        <v>6.163830595493164</v>
+        <v>6.287176389224532</v>
       </c>
       <c r="AJ2">
-        <v>5.073099354629219</v>
+        <v>5.132400196711578</v>
       </c>
       <c r="AK2">
-        <v>-6.163830595493164</v>
+        <v>-6.287176389224532</v>
       </c>
       <c r="AL2">
-        <v>9.029028139903172</v>
+        <v>8.214912610464552</v>
       </c>
       <c r="AM2">
-        <v>-13.32894141384676</v>
+        <v>-12.32744886234054</v>
       </c>
       <c r="AN2">
-        <v>-52.8556486603928</v>
+        <v>-53.75641413331196</v>
       </c>
       <c r="AO2">
-        <v>-70.91370494019915</v>
+        <v>-70.18623935424107</v>
       </c>
       <c r="AP2">
-        <v>-44.2558221125056</v>
+        <v>-45.53134162955997</v>
       </c>
       <c r="AQ2">
-        <v>-9.029028139903172</v>
+        <v>-8.214912610464552</v>
       </c>
       <c r="AR2">
-        <v>13.32894141384676</v>
+        <v>12.32744886234054</v>
       </c>
       <c r="AS2">
-        <v>61.01521666736261</v>
+        <v>60.83066002748302</v>
       </c>
       <c r="AT2">
-        <v>61.01521666736261</v>
+        <v>60.83066002748302</v>
       </c>
       <c r="AU2">
-        <v>61.5659442892574</v>
+        <v>61.37293966472015</v>
       </c>
       <c r="AV2">
-        <v>61.5659442892574</v>
+        <v>61.37293966472015</v>
       </c>
       <c r="AW2">
-        <v>61.56594428925746</v>
+        <v>61.37293966472015</v>
       </c>
       <c r="AX2">
-        <v>61.11222406133044</v>
+        <v>60.92981297429748</v>
       </c>
       <c r="AY2">
-        <v>61.11222406133044</v>
+        <v>60.92981297429748</v>
       </c>
       <c r="AZ2">
-        <v>45.00203690477366</v>
+        <v>45.00241456370861</v>
       </c>
       <c r="BA2">
-        <v>45.00203690477366</v>
+        <v>45.00241456370861</v>
       </c>
       <c r="BB2">
-        <v>44.68658430970396</v>
+        <v>44.69642864725432</v>
       </c>
       <c r="BC2">
-        <v>44.63535099647777</v>
+        <v>44.63993792125859</v>
       </c>
       <c r="BD2">
-        <v>44.72875154390005</v>
+        <v>44.74254362721706</v>
       </c>
       <c r="BE2">
-        <v>45.03111407978764</v>
+        <v>45.03907235094567</v>
       </c>
       <c r="BF2">
-        <v>45.03111407978764</v>
+        <v>45.03907235094567</v>
       </c>
       <c r="BG2">
-        <v>53.12364519191522</v>
+        <v>53.12368901318746</v>
       </c>
       <c r="BH2">
         <v>45</v>
@@ -910,10 +910,10 @@
         <v>65</v>
       </c>
       <c r="BJ2">
-        <v>46.03278143068576</v>
+        <v>45.95613052498413</v>
       </c>
       <c r="BK2">
-        <v>54.91212377137242</v>
+        <v>54.99078892544287</v>
       </c>
       <c r="BL2">
         <v>45</v>
